--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/15/seed1/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
         <v>-10.8</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.274099999999994</v>
+        <v>-6.897399999999996</v>
       </c>
       <c r="E2" t="n">
         <v>12.33</v>
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-10.92989999999999</v>
+        <v>-10.85429999999998</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -496,19 +496,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.62270000000003</v>
+        <v>-21.61720000000003</v>
       </c>
       <c r="B4" t="n">
-        <v>4.780100000000001</v>
+        <v>4.947499999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-10.87289999999999</v>
+        <v>-10.83889999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>13.36560000000002</v>
+        <v>13.38670000000002</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.988200000000001</v>
+        <v>4.983200000000001</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-21.38499999999999</v>
+        <v>-21.26479999999999</v>
       </c>
       <c r="B6" t="n">
         <v>7.87</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.41280000000001</v>
+        <v>-21.53780000000001</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>4.770000000000003</v>
+        <v>4.651700000000004</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -587,7 +587,7 @@
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.66470000000001</v>
+        <v>-11.74090000000001</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -621,7 +621,7 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-14.10590000000001</v>
+        <v>-14.13950000000001</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
@@ -644,7 +644,7 @@
         <v>-10.06</v>
       </c>
       <c r="E12" t="n">
-        <v>11.34860000000001</v>
+        <v>11.14460000000001</v>
       </c>
     </row>
     <row r="13">
@@ -672,7 +672,7 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.0615</v>
+        <v>-12.2154</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.40530000000002</v>
+        <v>-21.47600000000002</v>
       </c>
       <c r="B16" t="n">
-        <v>4.933699999999998</v>
+        <v>4.996899999999997</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -729,7 +729,7 @@
         <v>-6.63</v>
       </c>
       <c r="E17" t="n">
-        <v>12.89780000000002</v>
+        <v>12.68540000000001</v>
       </c>
     </row>
     <row r="18">
@@ -740,7 +740,7 @@
         <v>5.81</v>
       </c>
       <c r="C18" t="n">
-        <v>-14.39800000000002</v>
+        <v>-14.58090000000001</v>
       </c>
       <c r="D18" t="n">
         <v>-8.869999999999999</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.61820000000002</v>
+        <v>-22.57690000000001</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -777,10 +777,10 @@
         <v>-14.65</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.009400000000003</v>
+        <v>-8.166000000000007</v>
       </c>
       <c r="E20" t="n">
-        <v>13.21149999999999</v>
+        <v>13.14009999999999</v>
       </c>
     </row>
     <row r="21">
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>5.307900000000001</v>
+        <v>5.499200000000001</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -859,13 +859,13 @@
         <v>5.09</v>
       </c>
       <c r="C25" t="n">
-        <v>-10.82509999999999</v>
+        <v>-10.73299999999999</v>
       </c>
       <c r="D25" t="n">
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>13.41370000000002</v>
+        <v>13.46340000000001</v>
       </c>
     </row>
   </sheetData>
